--- a/res/testcase/login.xlsx
+++ b/res/testcase/login.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16035" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="19335" windowHeight="5820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
-    <sheet name="001_LoginSuccessFunction" sheetId="2" r:id="rId2"/>
+    <sheet name="op001_loginsuc" sheetId="4" r:id="rId2"/>
+    <sheet name="op002_loginfail" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="D1:E7"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>动作名称</t>
   </si>
@@ -254,13 +255,16 @@
     <t>LoginPage.添加图纸</t>
   </si>
   <si>
-    <t>chrome,C:\Users\Administrator\999.png</t>
-  </si>
-  <si>
-    <t>chrome,C:\Users\Administrator\123.png</t>
-  </si>
-  <si>
-    <t>chrome,C:\Users\Administrator\111.png</t>
+    <t>firefox,C:\Users\Administrator\123.png</t>
+  </si>
+  <si>
+    <t>firefox,C:\Users\Administrator\111.png</t>
+  </si>
+  <si>
+    <t>firefox,C:\Users\Administrator\999.png</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
   </si>
 </sst>
 </file>
@@ -268,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -282,21 +286,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,8 +323,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,6 +346,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -348,46 +414,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,31 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,18 +457,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,163 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,9 +653,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,21 +686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -719,6 +710,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -733,17 +748,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -752,10 +756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,31 +768,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,114 +801,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1271,10 +1278,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1402,7 +1409,7 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1442,7 +1449,7 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1488,18 +1495,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="102" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1549,7 +1556,7 @@
       <c r="D3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1577,7 +1584,7 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1699,33 +1706,74 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C7 C11 C12 C13 C14 C15 C16 C17 C18 C2:C6 C8:C10 C19:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C7 C11 C12 C13 C14 C15 C16 C2:C6 C8:C10">
       <formula1>Actions!$A$2:$A$26</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3">
+      <formula1>Actions!$A$2:$A$26</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>